--- a/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsb.xlsx
+++ b/pp_gas_enrichments/newMount_dry_highPP_500ppmCH4.xlsb.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CH4" sheetId="2" r:id="rId1"/>
     <sheet name="CO2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -108,7 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,12 +138,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AF9"/>
+  <dimension ref="C2:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,58 +437,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="6"/>
       <c r="AE2" t="s">
         <v>18</v>
       </c>
@@ -586,164 +585,187 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="6">
+    <row r="4" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>508</v>
       </c>
     </row>
-    <row r="5" spans="3:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-      <c r="N5" s="6">
+    <row r="5" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5">
         <v>475</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="3:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
+    <row r="6" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>417</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="3:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="6">
+    <row r="7" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>356</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="3:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+    <row r="8" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
         <v>42958</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>21</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>151.19999999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>392.5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>156.1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>405.48</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>49.25</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>124.8</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>67.2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>171.99</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>159.91999999999999</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>415.3</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>157.80000000000001</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>409.75</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>148.44</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>385.16</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="4">
         <v>146.66999999999999</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="4">
         <v>380.51</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="4">
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+    <row r="9" spans="3:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>42965</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>28</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>145.24</v>
       </c>
       <c r="F9" s="7">
         <v>376.1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>146.94</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>380.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>9.9499999999999993</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="4">
         <v>23.12</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>28.33</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>71.05</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>149.80000000000001</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="4">
         <v>388.18</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="4">
         <v>153.58000000000001</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="4">
         <v>397.87</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="4">
         <v>138.91999999999999</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="4">
         <v>359.61</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="4">
         <v>137.77000000000001</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="4">
         <v>356.61</v>
+      </c>
+    </row>
+    <row r="10" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>42968</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>15.35</v>
+      </c>
+      <c r="P10" s="1">
+        <v>39.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -751,12 +773,6 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -765,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AD8"/>
+  <dimension ref="C2:AD9"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,58 +793,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="6"/>
     </row>
     <row r="3" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
@@ -916,200 +932,218 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="6">
+    <row r="4" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6">
+    <row r="5" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
+    <row r="7" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
         <v>42958</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>46.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>48.9</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>50.2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.09</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.13</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>136.1</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.26</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>172.48</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.33339999999999997</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>149.6</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>41.3</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>45.4</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>45.56</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>52.2</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.1011</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>51.13</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>50.9</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+    <row r="8" spans="3:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
         <v>42965</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>60</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>0.11</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>61.9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>0.113</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>57.19</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>69.61</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>0.12759999999999999</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>188.19</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="4">
         <v>0.34499999999999997</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>224.9</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>0.41199999999999998</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>197.99</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>0.36299999999999999</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>56.1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="4">
         <v>0.10299999999999999</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="4">
         <v>54.6</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="4">
         <v>0.1</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="4">
         <v>51.17</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="4">
         <v>59.66</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="4">
         <v>0.109</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="4">
         <v>64</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="4">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="4">
         <v>61.19</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="4">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>42968</v>
+      </c>
+      <c r="M9" s="1">
+        <v>196.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>242.6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>220.38</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.40160000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -1118,6 +1152,11 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
